--- a/data/output/vv_keyword_tranlate_counts.xlsx
+++ b/data/output/vv_keyword_tranlate_counts.xlsx
@@ -453,11 +453,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FOREST DISTURBANCE</t>
+          <t>Forest Disturbance</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>110</v>
+        <v>349</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -468,1252 +468,1252 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DEFORESTATION</t>
+          <t>Tropical Forest</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>砍伐森林</t>
+          <t>热带森林</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TROPICAL FOREST</t>
+          <t>Dynamics</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>热带森林</t>
+          <t>动力学</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DISTURBANCE</t>
+          <t>Diversity</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>扰乱</t>
+          <t>多样性</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DYNAMICS</t>
+          <t>Landsat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>动力学</t>
+          <t>陆地卫星</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DIVERSITY</t>
+          <t>Patterns</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>多样性</t>
+          <t>图案</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RAIN-FOREST</t>
+          <t>Vegetation</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>热带雨林</t>
+          <t>植被</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TROPICAL FORESTS</t>
+          <t>Biomass</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>热带森林</t>
+          <t>生物量</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LANDSAT</t>
+          <t>Cover</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>陆地卫星</t>
+          <t>封面</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PATTERNS</t>
+          <t>Conservation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>图案</t>
+          <t>守恒</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>VEGETATION</t>
+          <t>Biodiversity</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>植被</t>
+          <t>生物多样性</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BIOMASS</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>生物质</t>
+          <t>MODIS</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GROWTH</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>增长</t>
+          <t>亚马逊</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>COVER</t>
+          <t>Recovery</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>盖子</t>
+          <t>恢复</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DEGRADATION</t>
+          <t>Tropical Rain-Forest</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>降级</t>
+          <t>热带雨林</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CONSERVATION</t>
+          <t>Aboveground Biomass</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>保育</t>
+          <t>地上生物量</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BIODIVERSITY</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>生物多样性</t>
+          <t>分类</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MODIS</t>
+          <t>Selective Logging</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MODIS</t>
+          <t>选择录井</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>FOREST DEGRADATION</t>
+          <t>Carbon</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>森林退化</t>
+          <t>碳素</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>RECOVERY</t>
+          <t>Climate-Change</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>回收</t>
+          <t>气候变化</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>Accuracy</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>亚马逊</t>
+          <t>精确度</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CLASSIFICATION</t>
+          <t>Ecology</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>分类</t>
+          <t>生态学</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TROPICAL RAIN-FOREST</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>热带雨林</t>
+          <t>管理</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ABOVEGROUND BIOMASS</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>地上生物量</t>
+          <t>气候</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CLIMATE-CHANGE</t>
+          <t>Fragmentation</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>气候变化</t>
+          <t>碎片化</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>REGENERATION</t>
+          <t>Impacts</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>再生</t>
+          <t>影响</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SELECTIVE LOGGING</t>
+          <t>Time Series</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>选择录井</t>
+          <t>时间序列</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CARBON</t>
+          <t>Remote Sensing</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>碳</t>
+          <t>遥感</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MANAGEMENT</t>
+          <t>Time-Series</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>时间序列</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>REMOTE SENSING</t>
+          <t>Change Detection</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>遥感</t>
+          <t>更改检测</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CHANGE DETECTION</t>
+          <t>Tropical Deforestation</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>变化检测</t>
+          <t>热带森林砍伐</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TROPICAL DEFORESTATION</t>
+          <t>Land-Use</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>热带森林砍伐</t>
+          <t>土地利用</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ECOLOGY</t>
+          <t>Detecting Trends</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>生态学</t>
+          <t>检测趋势</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ACCURACY</t>
+          <t>Succession</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>准确度</t>
+          <t>继任</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IMPACTS</t>
+          <t>Tree Mortality</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>影响</t>
+          <t>树木死亡率</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>TIME SERIES</t>
+          <t>Mortality</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>时间序列</t>
+          <t>死亡率</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CLIMATE</t>
+          <t>Species Composition</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>气候</t>
+          <t>物种组成</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>FRAGMENTATION</t>
+          <t>Abundance</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>碎片化</t>
+          <t>丰富度</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TIME-SERIES</t>
+          <t>History</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>时间序列</t>
+          <t>历史</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>DETECTING TRENDS</t>
+          <t>Rain-Forests</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>检测趋势</t>
+          <t>雨林</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MORTALITY</t>
+          <t>Land-Use Change</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>死亡率</t>
+          <t>土地利用变化</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>LAND-USE</t>
+          <t>Canopy Gaps</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>土地利用</t>
+          <t>树冠空隙</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SUCCESSION</t>
+          <t>Area</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>继任</t>
+          <t>面积</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>TREE MORTALITY</t>
+          <t>Impact</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>树木死亡率</t>
+          <t>影响</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HISTORY</t>
+          <t>Sentinel-1</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>历史</t>
+          <t>哨兵-1</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>AREA</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>面积</t>
+          <t>火</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SPECIES COMPOSITION</t>
+          <t>Carbon Emissions</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>物种组成</t>
+          <t>碳排放</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>LAND-USE CHANGE</t>
+          <t>Species Richness</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>土地利用变化</t>
+          <t>物种丰富度</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ABUNDANCE</t>
+          <t>Landscape</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>丰富度</t>
+          <t>景观</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>RAIN-FORESTS</t>
+          <t>Trees</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>雨林</t>
+          <t>树木</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TREES</t>
+          <t>Communities</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>树木</t>
+          <t>社区</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>FIRE</t>
+          <t>Secondary Forest</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>火</t>
+          <t>次生林</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CANOPY GAPS</t>
+          <t>Forest</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>树冠空隙</t>
+          <t>森林</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>IMPACT</t>
+          <t>Satellite</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>冲击</t>
+          <t>卫星</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>LANDTRENDR</t>
+          <t>Gap</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>兰德趋势</t>
+          <t>差距</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SENTINEL-1</t>
+          <t>Canopy Damage</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>哨兵-1</t>
+          <t>林冠损毁</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>LANDSCAPE</t>
+          <t>Damage</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>景观</t>
+          <t>毁伤</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CARBON EMISSIONS</t>
+          <t>Map</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>碳排放</t>
+          <t>地图</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SPECIES RICHNESS</t>
+          <t>Brazilian Amazon</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>物种丰富度</t>
+          <t>巴西亚马逊</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>COMMUNITIES</t>
+          <t>LiDAR</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>社区</t>
+          <t>激光雷达</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SATELLITE</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>卫星</t>
+          <t>巴西</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>FOREST</t>
+          <t>Emissions</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>森林</t>
+          <t>排放物</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SECONDARY FOREST</t>
+          <t>Tree</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>次生林</t>
+          <t>树</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>DAMAGE</t>
+          <t>Landtrendr</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>毁伤</t>
+          <t>兰德趋势</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CANOPY DAMAGE</t>
+          <t>Forest Management</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>林冠损毁</t>
+          <t>森林管理</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MAP</t>
+          <t>Anthropogenic Disturbance</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>地图</t>
+          <t>人为干扰</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>LIDAR</t>
+          <t>NDVI</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>激光雷达</t>
+          <t>NDVI</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>WOOD DENSITY</t>
+          <t>Functional Traits</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>木材密度</t>
+          <t>功能性状</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>FOREST MANAGEMENT</t>
+          <t>Wood Density</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>森林管理</t>
+          <t>木材密度</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>Land-Cover</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>巴西</t>
+          <t>土地覆盖</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BRAZILIAN AMAZON</t>
+          <t>Shifting Cultivation</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>巴西亚马逊</t>
+          <t>轮作耕作</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ESTIMATING AREA</t>
+          <t>Tree Regeneration</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>估算面积</t>
+          <t>树木再生</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>TREE</t>
+          <t>Estimating Area</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>树</t>
+          <t>估算面积</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CLOUD</t>
+          <t>Cloud</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>云层</t>
+          <t>云</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>TRENDS</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>趋势</t>
+          <t>巴拿马</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>EMISSIONS</t>
+          <t>Forest Monitoring</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>排放</t>
+          <t>森林监测</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>FOREST DYNAMICS</t>
+          <t>Climate Change</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>森林动态</t>
+          <t>气候变化</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>FUNCTIONAL TRAITS</t>
+          <t>Synthetic Aperture Radar</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>功能性状</t>
+          <t>合成孔径雷达</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SHIFTING CULTIVATION</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>轮作耕作</t>
+          <t>随机森林</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>NDVI</t>
+          <t>Forest Dynamics</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>NDVI</t>
+          <t>森林动态</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>LAND-COVER</t>
+          <t>Airborne Lidar</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>土地覆盖</t>
+          <t>机载激光雷达</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ANTHROPOGENIC DISTURBANCE</t>
+          <t>Protected Areas</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>人为干扰</t>
+          <t>保护区</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>TREE REGENERATION</t>
+          <t>SAR</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>树木更新</t>
+          <t>撒尔</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>INTENSITY</t>
+          <t>Forest Structure</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>强度</t>
+          <t>森林结构</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>RANDOM FOREST</t>
+          <t>Oil Palm</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1721,14 +1721,14 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>随机森林</t>
+          <t>油棕榈树</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SYNTHETIC APERTURE RADAR</t>
+          <t>Amazonia</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1736,14 +1736,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>合成孔径雷达</t>
+          <t>亚马孙</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>FOREST MONITORING</t>
+          <t>Landsat Time-Series</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1751,14 +1751,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>森林监测</t>
+          <t>陆地卫星时间序列</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SAR</t>
+          <t>Drought</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1766,14 +1766,14 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>撒尔</t>
+          <t>干旱</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CLIMATE CHANGE</t>
+          <t>Productivity</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1781,14 +1781,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>气候变化</t>
+          <t>生产力</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>TOPOGRAPHY</t>
+          <t>Rainfall</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1796,14 +1796,14 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>地形</t>
+          <t>降雨</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>AMAZONIA</t>
+          <t>Trends</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1811,14 +1811,14 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>亚马孙</t>
+          <t>趋势</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>PROTECTED AREAS</t>
+          <t>Imagery</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1826,14 +1826,14 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>保护区</t>
+          <t>意象</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>FOREST STRUCTURE</t>
+          <t>Logged Forests</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1841,14 +1841,14 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>森林结构</t>
+          <t>被砍伐的森林</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>RAIN FOREST</t>
+          <t>Intensity</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1856,14 +1856,14 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>雨林</t>
+          <t>强度</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>DROUGHT</t>
+          <t>Western-Ghats</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1871,179 +1871,179 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>干旱</t>
+          <t>西部高止山脉</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>OIL PALM</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>油棕榈树</t>
+          <t>哥斯达黎加</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>AIRBORNE LIDAR</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>机载激光雷达</t>
+          <t>婆罗洲</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>LANDSAT TIME-SERIES</t>
+          <t>Logging</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>陆地卫星时间序列</t>
+          <t>日志记录</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>PRODUCTIVITY</t>
+          <t>Lianas</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>生产力</t>
+          <t>藤本植物</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>FOREST REGENERATION</t>
+          <t>Tropical Dry Forest</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>森林更新</t>
+          <t>热带干燥森林</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>RAINFALL</t>
+          <t>Plantations</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>降雨</t>
+          <t>种植园</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>PANAMA</t>
+          <t>Forest Regeneration</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>巴拿马</t>
+          <t>森林更新</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>IMAGERY</t>
+          <t>Recruitment</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>意象</t>
+          <t>招聘</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>LOGGED FORESTS</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>被砍伐的森林</t>
+          <t>地形</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>WESTERN-GHATS</t>
+          <t>Canopy</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>西部高止山脉</t>
+          <t>天篷</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SIZE</t>
+          <t>Tree Diversity</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>尺寸</t>
+          <t>树木多样性</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>LOGGING</t>
+          <t>Large Blowdowns</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -2051,14 +2051,14 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>日志记录</t>
+          <t>大量排污</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SATELLITE DATA</t>
+          <t>Stocks</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -2066,14 +2066,14 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>卫星数据</t>
+          <t>股票</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>LIANAS</t>
+          <t>Soil</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -2081,14 +2081,14 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>藤本植物</t>
+          <t>土质</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>PLANTATIONS</t>
+          <t>Deciduous Forest</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -2096,14 +2096,14 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>种植园</t>
+          <t>落叶林</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BORNEO</t>
+          <t>Light</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -2111,239 +2111,239 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>婆罗洲</t>
+          <t>灯</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>TROPICAL DRY FOREST</t>
+          <t>Pollen Analysis</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>热带旱林</t>
+          <t>花粉分析</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>COSTA RICA</t>
+          <t>Sentinel-2</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>哥斯达黎加</t>
+          <t>哨兵-2</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>GAPS</t>
+          <t>Forest Succession</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>差距</t>
+          <t>森林演替</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>DENDROECOLOGY</t>
+          <t>Tropical Rainforest</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>需求生态学</t>
+          <t>热带雨林</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>TROPICAL CYCLONES</t>
+          <t>Land Use</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>热带气旋</t>
+          <t>土地利用</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>RECRUITMENT</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>招聘</t>
+          <t>墨西哥</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SOIL</t>
+          <t>Redd</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>土壤</t>
+          <t>瑞德</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>STOCKS</t>
+          <t>Accuracy Assessment</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>股票</t>
+          <t>准确度评估</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>LIGHT</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>灯</t>
+          <t>光合作用</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>DECIDUOUS FOREST</t>
+          <t>Forest Fragmentation</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>落叶林</t>
+          <t>森林碎片化</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>LARGE BLOWDOWNS</t>
+          <t>Floristic Composition</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>大量排污</t>
+          <t>植物区系组成</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BOREAL FOREST</t>
+          <t>Dendroecology</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>北方森林</t>
+          <t>树上生态学</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>TREE DIVERSITY</t>
+          <t>Montane Forest</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>树木多样性</t>
+          <t>山地森林</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>AGRICULTURE</t>
+          <t>Tropical Cyclones</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>农业</t>
+          <t>热带气旋</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>CANOPY</t>
+          <t>Hurricane Hugo</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>天篷</t>
+          <t>飓风雨果</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>FOREST FRAGMENTATION</t>
+          <t>Carbon Stocks</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -2351,14 +2351,14 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>森林碎片化</t>
+          <t>碳储备</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>HURRICANE HUGO</t>
+          <t>Satellite Data</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2366,14 +2366,14 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>飓风雨果</t>
+          <t>卫星数据</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>LANDSAT TIME SERIES</t>
+          <t>Restoration</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -2381,14 +2381,14 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>陆地卫星时间序列</t>
+          <t>修复</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>LAND USE</t>
+          <t>Net Primary Production</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -2396,14 +2396,14 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>土地利用</t>
+          <t>净初级生产量</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>FOREST SUCCESSION</t>
+          <t>Agriculture</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -2411,14 +2411,14 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>森林演替</t>
+          <t>农业</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>NET PRIMARY PRODUCTION</t>
+          <t>Seedlings</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -2426,14 +2426,14 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>净初级生产量</t>
+          <t>苗木</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SENTINEL-2</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -2441,14 +2441,14 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>哨兵-2</t>
+          <t>型号</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>Boreal Forest</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -2456,14 +2456,14 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>墨西哥</t>
+          <t>北方森林</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ACCURACY ASSESSMENT</t>
+          <t>Tropical Rain-Forests</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -2471,14 +2471,14 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>准确度评估</t>
+          <t>热带雨林</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>RESTORATION</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -2486,14 +2486,14 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>恢复</t>
+          <t>密度</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>TROPICAL RAINFOREST</t>
+          <t>Responses</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -2501,14 +2501,14 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>热带雨林</t>
+          <t>回应</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>PHOTOSYNTHESIS</t>
+          <t>Cloud Shadow</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -2516,14 +2516,14 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>光合作用</t>
+          <t>云影</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>FLORISTIC COMPOSITION</t>
+          <t>Dispersal</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -2531,14 +2531,14 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>植物区系组成</t>
+          <t>散布</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SEGMENTATION</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -2546,14 +2546,14 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>细分</t>
+          <t>水</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>CARBON STOCKS</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -2561,14 +2561,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>碳储备</t>
+          <t>大小</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>MAPS</t>
+          <t>Tree Species Composition</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -2576,14 +2576,14 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>地图</t>
+          <t>树种组成</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>REDD</t>
+          <t>Survival</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -2591,14 +2591,14 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>瑞德</t>
+          <t>生死存亡</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>CARBON BALANCE</t>
+          <t>Species-Diversity</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -2606,239 +2606,239 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>碳平衡</t>
+          <t>物种多样性</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>MONTANE FOREST</t>
+          <t>Holocene</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>山地森林</t>
+          <t>全新世</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>POLLEN ANALYSIS</t>
+          <t>Pollen</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>花粉分析</t>
+          <t>花粉</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SEED DISPERSAL</t>
+          <t>Tropical</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>种子散布</t>
+          <t>热带</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>CLOUD SHADOW</t>
+          <t>Charcoal</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>云影</t>
+          <t>木炭</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>RESPONSES</t>
+          <t>Plantation</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>回应</t>
+          <t>种植园</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>MODEL</t>
+          <t>Soil Seed Bank</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>型号</t>
+          <t>土壤种子库</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>WATER</t>
+          <t>Tropical Forest Disturbance</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>水</t>
+          <t>热带森林干扰</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SPECIES-DIVERSITY</t>
+          <t>Forest Ecology</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>物种多样性</t>
+          <t>森林生态学</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>DENSITY</t>
+          <t>Landsat Time Series</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>密度</t>
+          <t>陆地卫星时间序列</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>DISPERSAL</t>
+          <t>Tree Height</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>散布</t>
+          <t>树高</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SURVIVAL</t>
+          <t>Canopy Cover</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>生死存亡</t>
+          <t>天篷覆盖物</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>TROPICAL RAIN-FORESTS</t>
+          <t>Vegetation Index</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>热带雨林</t>
+          <t>植被指数</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>SEEDLINGS</t>
+          <t>Forest Fires</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>苗木</t>
+          <t>森林火灾</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ECOSYSTEMS</t>
+          <t>Tropical Ecology</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>生态系统</t>
+          <t>热带生态学</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>TREE SPECIES COMPOSITION</t>
+          <t>Seed Dispersal</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>树种组成</t>
+          <t>种子散布</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>GOOGLE EARTH ENGINE</t>
+          <t>Frontier</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2846,14 +2846,14 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>谷歌地球引擎</t>
+          <t>边疆</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>VINES</t>
+          <t>Hurricane</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2861,14 +2861,14 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>藤本植物</t>
+          <t>飓风</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>TIME SERIES ANALYSIS</t>
+          <t>Carbon Balance</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2876,14 +2876,14 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>时间序列分析</t>
+          <t>碳平衡</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>CANOPY COVER</t>
+          <t>Spectral Mixture Analysis</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2891,14 +2891,14 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>天篷覆盖物</t>
+          <t>光谱混合分析</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>FOREST ECOLOGY</t>
+          <t>Alos Palsar</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2906,14 +2906,14 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>森林生态学</t>
+          <t>ALOS PALSAR</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>PLANTATION</t>
+          <t>Time Series Analysis</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2921,14 +2921,14 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>种植园</t>
+          <t>时间序列分析</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>FOREST FRAGMENTS</t>
+          <t>Forest Fragments</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2943,7 +2943,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>TROPICAL TREES</t>
+          <t>Drivers</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2951,14 +2951,14 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>热带树木</t>
+          <t>司机</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>RESILIENCE</t>
+          <t>Vines</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2966,14 +2966,14 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>恢复力</t>
+          <t>藤本植物</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>FOREST FIRES</t>
+          <t>Human Disturbance</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2981,14 +2981,14 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>森林火灾</t>
+          <t>人为干扰</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>NATURAL REGENERATION</t>
+          <t>Sabah</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2996,14 +2996,14 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>自然再生</t>
+          <t>沙巴州</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>DRIVERS</t>
+          <t>Maps</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -3011,14 +3011,14 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>驱动因素</t>
+          <t>地图</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>TROPICAL ECOLOGY</t>
+          <t>Land-Cover Change</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -3026,14 +3026,14 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>热带生态学</t>
+          <t>土地覆盖变化</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -3048,7 +3048,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>TROPICAL</t>
+          <t>Natural Regeneration</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -3056,14 +3056,14 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>热带</t>
+          <t>自然再生</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>HURRICANES</t>
+          <t>Habitat Fragmentation</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -3071,14 +3071,14 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>飓风</t>
+          <t>生境碎片化</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>SPECTRAL MIXTURE ANALYSIS</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -3086,14 +3086,14 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>光谱混合分析</t>
+          <t>分割</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>TROPICAL FOREST DISTURBANCE</t>
+          <t>Resilience</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -3101,14 +3101,14 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>热带森林干扰</t>
+          <t>恢复力</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>VEGETATION INDEX</t>
+          <t>Hurricanes</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -3116,14 +3116,14 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>植被指数</t>
+          <t>飓风</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>DECOMPOSITION</t>
+          <t>Tropical Semideciduous Forest</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -3131,14 +3131,14 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>分解</t>
+          <t>热带半落叶林</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>TREE HEIGHT</t>
+          <t>Tropical Trees</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -3146,14 +3146,14 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>树高</t>
+          <t>热带树木</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>CARBON SEQUESTRATION</t>
+          <t>Fires</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -3161,14 +3161,14 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>碳封存</t>
+          <t>火灾</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>HUMAN DISTURBANCE</t>
+          <t>Temporal Patterns</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -3176,14 +3176,14 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>人为干扰</t>
+          <t>时间模式</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>SABAH</t>
+          <t>Transpiration</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -3191,14 +3191,14 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>沙巴州</t>
+          <t>蒸腾作用</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ALOS PALSAR</t>
+          <t>Dipterocarp Forest</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -3206,14 +3206,14 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>ALOS PALSAR</t>
+          <t>龙脑草林</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>FRONTIER</t>
+          <t>East Kalimantan</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -3221,14 +3221,14 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>前沿</t>
+          <t>东加里曼丹</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>HABITAT FRAGMENTATION</t>
+          <t>Reduced-Impact</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -3236,14 +3236,14 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>生境碎片化</t>
+          <t>减少影响</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>SOIL SEED BANK</t>
+          <t>Ecosystems</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -3251,14 +3251,14 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>土壤种子库</t>
+          <t>生态系统</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>LAND-COVER CHANGE</t>
+          <t>Phase Regeneration</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -3266,14 +3266,14 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>土地覆盖变化</t>
+          <t>相再生</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>TROPICAL SEMIDECIDUOUS FOREST</t>
+          <t>Sensitivity</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -3281,14 +3281,14 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>热带半热带森林</t>
+          <t>敏感度</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>GAP</t>
+          <t>Variability</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -3296,14 +3296,14 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>间隙</t>
+          <t>可变性</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>CHARCOAL</t>
+          <t>El-Nino</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -3311,14 +3311,14 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>木炭</t>
+          <t>厄尔尼诺现象</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>HOLOCENE</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -3326,14 +3326,14 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>全新世</t>
+          <t>性能</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>HURRICANE</t>
+          <t>Strategies</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -3341,14 +3341,14 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>飓风</t>
+          <t>策略</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>WIND</t>
+          <t>Models</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -3356,14 +3356,14 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>风</t>
+          <t>模型</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>OLD-GROWTH</t>
+          <t>National-Park</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -3371,14 +3371,14 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>老的成长</t>
+          <t>国家公园</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>POLLEN</t>
+          <t>Kalimantan</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -3386,14 +3386,14 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>花粉</t>
+          <t>加里曼丹</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>PERFORMANCE</t>
+          <t>Secondary</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -3401,14 +3401,14 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>性能</t>
+          <t>次要的</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>TEMPORAL PATTERNS</t>
+          <t>Sarawak</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -3416,14 +3416,14 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>时间模式</t>
+          <t>沙捞越</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>EAST KALIMANTAN</t>
+          <t>Vegetation Structure</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -3431,14 +3431,14 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>东加里曼丹</t>
+          <t>植被结构</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>MODELS</t>
+          <t>Calibration</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -3446,14 +3446,14 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>模型</t>
+          <t>定标</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>NATIONAL-PARK</t>
+          <t>Algorithm</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -3461,14 +3461,14 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>国家公园</t>
+          <t>演算法</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>EL-NINO</t>
+          <t>Cover Loss</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -3476,14 +3476,14 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>厄尔尼诺现象</t>
+          <t>承保损失</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>EVERGREEN FOREST</t>
+          <t>Evergreen Forest</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -3491,284 +3491,284 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>常绿林</t>
+          <t>常绿森林</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>REDUCED-IMPACT</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>减少影响</t>
+          <t>监控</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>LANDSCAPES</t>
+          <t>Old-Growth</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>风景画</t>
+          <t>老的成长</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>TRANSPIRATION</t>
+          <t>Liana</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>蒸腾作用</t>
+          <t>利亚娜</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>SENSITIVITY</t>
+          <t>Sap Flux</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>灵敏性</t>
+          <t>SAP流量</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>VARIABILITY</t>
+          <t>Southeast Asia</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>可变性</t>
+          <t>东南亚</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>ALGORITHM</t>
+          <t>Yucatan Peninsula</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>算法</t>
+          <t>尤卡坦半岛</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>DIPTEROCARP FOREST</t>
+          <t>Pasture</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>龙脑香林</t>
+          <t>牧场</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>COVER LOSS</t>
+          <t>Atlantic Forest</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>承保损失</t>
+          <t>大西洋森林</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>UNITED-STATES</t>
+          <t>Epiphytes</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>美国--美国</t>
+          <t>附生植物</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>CALIBRATION</t>
+          <t>Canopy Height</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>校准</t>
+          <t>冠层高度</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>FIRES</t>
+          <t>Tree Damage</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>火灾</t>
+          <t>树木损毁</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>STRATEGIES</t>
+          <t>Random Forests</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>战略</t>
+          <t>随机森林</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>SARAWAK</t>
+          <t>Disturbance Gradient</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>沙捞越</t>
+          <t>扰动梯度</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>SECONDARY</t>
+          <t>Phenology</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>次要</t>
+          <t>物候学</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>VEGETATION STRUCTURE</t>
+          <t>Google Earth Engine</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>植被结构</t>
+          <t>谷歌地球引擎</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>KALIMANTAN</t>
+          <t>Forest Cover Change</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>加里曼丹</t>
+          <t>森林覆盖变化</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>Land Use Change</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>环境</t>
+          <t>土地利用变化</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>PHASE REGENERATION</t>
+          <t>Agroforestry</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>相再生</t>
+          <t>农林复合经营</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>FOREST DISTURBANCES</t>
+          <t>Carbon Sequestration</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -3776,14 +3776,14 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>森林骚乱</t>
+          <t>碳封存</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>MALAYSIA</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -3791,14 +3791,14 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>马来西亚</t>
+          <t>柬埔寨</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>CANOPY HEIGHT</t>
+          <t>Island</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -3806,14 +3806,14 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>冠层高度</t>
+          <t>海岛</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>LIANA</t>
+          <t>Wind</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -3821,14 +3821,14 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>利亚娜</t>
+          <t>风</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>FOREST RECOVERY</t>
+          <t>Nep</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -3836,14 +3836,14 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>森林恢复</t>
+          <t>NEP</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>STREAMFLOW</t>
+          <t>Soils</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -3851,14 +3851,14 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>径流</t>
+          <t>土壤</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>LANDSAT 8</t>
+          <t>Dispersal Mode</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -3866,14 +3866,14 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>陆地卫星8号</t>
+          <t>扩散模式</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>AFFORESTATION</t>
+          <t>Liana Abundance</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -3881,14 +3881,14 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>植树造林</t>
+          <t>藤本植物丰度</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>RANDOM FORESTS</t>
+          <t>Moist Forest</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -3896,14 +3896,14 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>随机森林</t>
+          <t>潮湿的森林</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>FOREST COVER CHANGE</t>
+          <t>Edge Effects</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -3911,14 +3911,14 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>森林覆盖变化</t>
+          <t>边缘效果</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>NEP</t>
+          <t>Reforestation</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -3926,14 +3926,14 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>NEP</t>
+          <t>植树造林</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>SOUTHEAST ASIA</t>
+          <t>Forest Disturbances</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -3941,14 +3941,14 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>东南亚</t>
+          <t>森林骚乱</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>DISTURBANCE GRADIENT</t>
+          <t>Canopy Disturbance</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -3956,14 +3956,14 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>扰动梯度</t>
+          <t>冠层干扰</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>SAP FLUX</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -3971,14 +3971,14 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>汁液流量</t>
+          <t>温度</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>METHANE</t>
+          <t>Species Diversity</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -3986,14 +3986,14 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>甲烷</t>
+          <t>物种多样性</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>FORESTRY</t>
+          <t>Methane</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -4001,14 +4001,14 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>林业</t>
+          <t>甲烷</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>DISTURBANCES</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -4016,14 +4016,14 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>骚乱</t>
+          <t>印度</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>GLOBAL CHANGE</t>
+          <t>Streamflow</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -4031,14 +4031,14 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>全球变化</t>
+          <t>径流</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>CAMBODIA</t>
+          <t>Dry Forest</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -4046,14 +4046,14 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>柬埔寨</t>
+          <t>干燥的森林</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>EPIPHYTES</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -4061,14 +4061,14 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>附生植物</t>
+          <t>乌干达</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>MONITORING</t>
+          <t>Anatomy</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -4076,14 +4076,14 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>监控</t>
+          <t>解剖学</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>TEMPORAL SEGMENTATION</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -4091,14 +4091,14 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>时间分割</t>
+          <t>马来西亚</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>CARBON CYCLE</t>
+          <t>Microclimate</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -4106,14 +4106,14 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>碳循环</t>
+          <t>小气候</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ALLOCATION</t>
+          <t>Decomposition</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -4121,14 +4121,14 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>分配</t>
+          <t>分解</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>YUCATAN PENINSULA</t>
+          <t>Soil Carbon</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -4136,14 +4136,14 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>尤卡坦半岛</t>
+          <t>土壤碳</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>SOILS</t>
+          <t>Disturbances</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -4151,14 +4151,14 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>土壤</t>
+          <t>骚乱</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>PHENOLOGY</t>
+          <t>Carbon Cycle</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -4166,14 +4166,14 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>物候学</t>
+          <t>碳循环</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>UGANDA</t>
+          <t>Dry Tropical Forest</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -4181,14 +4181,14 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>乌干达</t>
+          <t>干燥的热带森林</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>DISPERSAL MODE</t>
+          <t>Allocation</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -4196,14 +4196,14 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>扩散模式</t>
+          <t>分配</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>LIANA ABUNDANCE</t>
+          <t>Evapotranspiration</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -4211,14 +4211,14 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>藤本植物丰度</t>
+          <t>蒸散量</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>PASTURE</t>
+          <t>North-America</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -4226,14 +4226,14 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>牧场</t>
+          <t>北美--</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>SOIL CARBON</t>
+          <t>Maize Cultivation</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -4241,14 +4241,14 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>土壤碳</t>
+          <t>玉米栽培</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>DRY FOREST</t>
+          <t>Carbon-Dioxide</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -4256,14 +4256,14 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>干燥的森林</t>
+          <t>二氧化碳</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>EVAPOTRANSPIRATION</t>
+          <t>Fluxes</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -4271,14 +4271,14 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>蒸散量</t>
+          <t>通量</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>MICROCLIMATE</t>
+          <t>Gap-Phase Regeneration</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -4286,14 +4286,14 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>小气候</t>
+          <t>间隙相再生</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>LAND USE CHANGE</t>
+          <t>Height</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -4301,14 +4301,14 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>土地利用变化</t>
+          <t>高度</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>EDGE EFFECTS</t>
+          <t>Resolution</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -4316,14 +4316,14 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>边缘效果</t>
+          <t>分辨率</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>DISTURBANCE HISTORY</t>
+          <t>Carbon Storage</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -4331,14 +4331,14 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>扰动史</t>
+          <t>碳储存</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ATLANTIC FOREST</t>
+          <t>Transformation</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -4346,14 +4346,14 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>大西洋森林</t>
+          <t>转化</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>CANOPY DISTURBANCE</t>
+          <t>Moist</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -4361,14 +4361,14 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>冠层干扰</t>
+          <t>润湿</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>SPECIES DIVERSITY</t>
+          <t>Images</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -4376,14 +4376,14 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>物种多样性</t>
+          <t>图片</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ANATOMY</t>
+          <t>Leaf-Area Index</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -4391,14 +4391,14 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>解剖学</t>
+          <t>叶面积指数</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>AGROFORESTRY</t>
+          <t>Radiometric Normalization</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -4406,14 +4406,14 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>农林复合经营</t>
+          <t>辐射归一化</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>REFORESTATION</t>
+          <t>Cover Change</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -4421,14 +4421,14 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>植树造林</t>
+          <t>封面更换</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>INDIA</t>
+          <t>Leaf</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -4436,14 +4436,14 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>印度</t>
+          <t>叶</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>TREE DAMAGE</t>
+          <t>Distribution Patterns</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -4451,14 +4451,14 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>树木损毁</t>
+          <t>分布格局</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>MOIST FOREST</t>
+          <t>Assemblages</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -4466,14 +4466,14 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>潮湿的森林</t>
+          <t>装配</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>DRY TROPICAL FOREST</t>
+          <t>Scale</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -4481,14 +4481,14 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>干燥的热带森林</t>
+          <t>比例尺</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>STAND STRUCTURE</t>
+          <t>Dominance</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -4496,14 +4496,14 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>林分结构</t>
+          <t>优势</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>TEMPERATURE</t>
+          <t>Land</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -4511,14 +4511,14 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>温度</t>
+          <t>土地</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>ISLAND</t>
+          <t>Gradient</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -4526,14 +4526,14 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>海岛</t>
+          <t>梯度</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>BARK BEETLE</t>
+          <t>Barro-Colorado Island</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -4541,14 +4541,14 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>树皮甲虫</t>
+          <t>巴罗-科罗拉多岛</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>CHINA</t>
+          <t>Spatial-Patterns</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -4556,14 +4556,14 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>中国</t>
+          <t>空间格局</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>WOODLANDS</t>
+          <t>Dry Forests</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -4571,14 +4571,14 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>林地</t>
+          <t>干燥的森林</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>Norway Spruce</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -4586,14 +4586,14 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>叶</t>
+          <t>挪威云杉</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>DISTRIBUTION PATTERNS</t>
+          <t>Turnover</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -4601,14 +4601,14 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>分布格局</t>
+          <t>营业额</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>BARRO-COLORADO ISLAND</t>
+          <t>Luquillo Experimental Forest</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -4616,14 +4616,14 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>巴罗科罗拉多岛</t>
+          <t>卢基洛实验林</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>DOMINANCE</t>
+          <t>Woodlands</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -4631,14 +4631,14 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>主导地位</t>
+          <t>林地</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>COMMUNITY STRUCTURE</t>
+          <t>South-America</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -4646,14 +4646,14 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>社区结构</t>
+          <t>南美</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>SCALE</t>
+          <t>Fragments</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -4661,14 +4661,14 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>比例尺</t>
+          <t>碎片</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>CARBON STORAGE</t>
+          <t>Community Structure</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -4676,14 +4676,14 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>碳储存</t>
+          <t>社区结构</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>DRY FORESTS</t>
+          <t>Community</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -4691,14 +4691,14 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>干燥的森林</t>
+          <t>社区</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>LAND</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -4706,14 +4706,14 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>土地</t>
+          <t>森林</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>COVER CHANGE</t>
+          <t>Population-Dynamics</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -4721,14 +4721,14 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>封面更换</t>
+          <t>人口--动态</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>CATASTROPHIC WIND</t>
+          <t>Population-Structure</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -4736,14 +4736,14 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>灾害性风</t>
+          <t>人口结构</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>GRADIENT</t>
+          <t>Edge</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -4751,14 +4751,14 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>渐变</t>
+          <t>边缘</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>FORESTS</t>
+          <t>Environmental-Change</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -4766,14 +4766,14 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>森林</t>
+          <t>环境变化</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>ASSEMBLAGES</t>
+          <t>Savanna</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -4781,14 +4781,14 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>装配</t>
+          <t>稀树大草原</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>FRAGMENTS</t>
+          <t>Vascular Epiphytes</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -4796,14 +4796,14 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>碎片</t>
+          <t>维管附生植物</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>LEAF-AREA INDEX</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -4811,14 +4811,14 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>叶面积指数</t>
+          <t>中国</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>LANDSAT DATA</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -4826,14 +4826,14 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>陆地卫星数据</t>
+          <t>环境</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>SURFACE REFLECTANCE</t>
+          <t>Inventory</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -4841,14 +4841,14 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>表面反射率</t>
+          <t>库存</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>INVENTORY</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -4856,14 +4856,14 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>盘存</t>
+          <t>区域</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>SAVANNA</t>
+          <t>Catastrophic Wind</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -4871,14 +4871,14 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>稀树大草原</t>
+          <t>灾害性大风</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>HEIGHT</t>
+          <t>Landsat Data</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -4886,14 +4886,14 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>高度</t>
+          <t>陆地卫星数据</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>RESOLUTION</t>
+          <t>Landscapes</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -4901,52 +4901,52 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>决议</t>
+          <t>山水</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>PLANTS</t>
+          <t>Human Impact</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>植物</t>
+          <t>人的影响</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>VASCULAR EPIPHYTES</t>
+          <t>Archaeology</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>维管附生植物</t>
+          <t>考古学</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>POPULATION-DYNAMICS</t>
+          <t>Timber Harvesting</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>人口动态</t>
+          <t>木材采伐</t>
         </is>
       </c>
     </row>

--- a/data/output/vv_keyword_tranlate_counts.xlsx
+++ b/data/output/vv_keyword_tranlate_counts.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
